--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF4D2607-A840-4C2F-AD40-C9DA44747A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB29FC7-E7D1-47AB-8358-99FC0C43C5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23D02EDA-9573-4020-8E27-18911BCE04D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE436804-380B-41CE-A1C9-610B18338047}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="316">
   <si>
     <t>Clase social manual de la persona con más ingresos del hogar (clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,928 +74,913 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>No ha trabajado</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>No ha trabajado</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
   </si>
   <si>
     <t>52,0%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1410,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAC0843-069B-41DA-9664-4097A131D8C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DE61E7-7583-419A-905E-C1D9172A78A7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,16 +1552,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -1585,13 +1570,13 @@
         <v>7491</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -1600,13 +1585,13 @@
         <v>6905</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -1615,19 +1600,19 @@
         <v>14396</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>138</v>
@@ -1636,13 +1621,13 @@
         <v>114994</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -1651,13 +1636,13 @@
         <v>108890</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>339</v>
@@ -1666,19 +1651,19 @@
         <v>223884</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>182</v>
@@ -1687,13 +1672,13 @@
         <v>131817</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>314</v>
@@ -1702,13 +1687,13 @@
         <v>151677</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>496</v>
@@ -1717,13 +1702,13 @@
         <v>283494</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,13 +1723,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1753,13 +1738,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1768,18 +1753,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1791,13 +1776,13 @@
         <v>4062</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -1806,13 +1791,13 @@
         <v>11412</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -1821,19 +1806,19 @@
         <v>15474</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1842,13 +1827,13 @@
         <v>1456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1857,13 +1842,13 @@
         <v>40896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -1872,19 +1857,19 @@
         <v>42352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>175</v>
@@ -1893,13 +1878,13 @@
         <v>231077</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -1908,13 +1893,13 @@
         <v>216221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>445</v>
@@ -1923,19 +1908,19 @@
         <v>447298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>203</v>
@@ -1944,13 +1929,13 @@
         <v>282702</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>372</v>
@@ -1959,13 +1944,13 @@
         <v>286037</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>575</v>
@@ -1974,13 +1959,13 @@
         <v>568740</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1980,13 @@
         <v>519297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>717</v>
@@ -2010,13 +1995,13 @@
         <v>554566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1099</v>
@@ -2025,18 +2010,18 @@
         <v>1073864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2048,13 +2033,13 @@
         <v>3740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2063,13 +2048,13 @@
         <v>8969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2078,19 +2063,19 @@
         <v>12709</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>5</v>
@@ -2102,10 +2087,10 @@
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2114,13 +2099,13 @@
         <v>11826</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>19</v>
@@ -2129,19 +2114,19 @@
         <v>16502</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>149</v>
@@ -2150,13 +2135,13 @@
         <v>140933</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -2165,13 +2150,13 @@
         <v>129119</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>322</v>
@@ -2180,19 +2165,19 @@
         <v>270051</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>202</v>
@@ -2201,13 +2186,13 @@
         <v>172892</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -2216,13 +2201,13 @@
         <v>223371</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>540</v>
@@ -2231,13 +2216,13 @@
         <v>396262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2237,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -2267,13 +2252,13 @@
         <v>373284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
@@ -2282,18 +2267,18 @@
         <v>695524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2305,13 +2290,13 @@
         <v>6534</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -2320,13 +2305,13 @@
         <v>17960</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -2335,19 +2320,19 @@
         <v>24493</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2356,13 +2341,13 @@
         <v>1476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -2371,13 +2356,13 @@
         <v>17560</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -2386,19 +2371,19 @@
         <v>19036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>157</v>
@@ -2407,13 +2392,13 @@
         <v>168358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>223</v>
@@ -2422,13 +2407,13 @@
         <v>152441</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>380</v>
@@ -2437,19 +2422,19 @@
         <v>320799</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>128</v>
@@ -2458,13 +2443,13 @@
         <v>145873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>321</v>
@@ -2473,13 +2458,13 @@
         <v>240596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>449</v>
@@ -2488,13 +2473,13 @@
         <v>386469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2494,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
@@ -2524,13 +2509,13 @@
         <v>428556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
@@ -2539,18 +2524,18 @@
         <v>750796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2562,13 +2547,13 @@
         <v>12805</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2577,13 +2562,13 @@
         <v>15471</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -2592,19 +2577,19 @@
         <v>28276</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -2613,13 +2598,13 @@
         <v>2945</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2628,13 +2613,13 @@
         <v>32496</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -2643,19 +2628,19 @@
         <v>35441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>114</v>
@@ -2664,13 +2649,13 @@
         <v>81801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -2679,13 +2664,13 @@
         <v>80083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -2694,19 +2679,19 @@
         <v>161884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>144</v>
@@ -2715,13 +2700,13 @@
         <v>99198</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>285</v>
@@ -2730,13 +2715,13 @@
         <v>131463</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>429</v>
@@ -2745,13 +2730,13 @@
         <v>230660</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2751,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>495</v>
@@ -2781,13 +2766,13 @@
         <v>259513</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>774</v>
@@ -2796,18 +2781,18 @@
         <v>456260</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2834,13 +2819,13 @@
         <v>630</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2849,19 +2834,19 @@
         <v>630</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -2873,10 +2858,10 @@
         <v>14</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -2885,13 +2870,13 @@
         <v>10460</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2900,19 +2885,19 @@
         <v>14466</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>148</v>
@@ -2921,13 +2906,13 @@
         <v>112873</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -2936,13 +2921,13 @@
         <v>105218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>314</v>
@@ -2951,19 +2936,19 @@
         <v>218091</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>219</v>
@@ -2972,13 +2957,13 @@
         <v>160343</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>275</v>
@@ -2987,13 +2972,13 @@
         <v>159315</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>494</v>
@@ -3002,13 +2987,13 @@
         <v>319658</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3008,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3038,13 +3023,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3053,18 +3038,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3076,13 +3061,13 @@
         <v>14811</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>28</v>
@@ -3091,13 +3076,13 @@
         <v>16742</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -3106,19 +3091,19 @@
         <v>31553</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>10</v>
@@ -3127,13 +3112,13 @@
         <v>9261</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H35" s="7">
         <v>41</v>
@@ -3157,10 +3142,10 @@
         <v>42544</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>235</v>
@@ -3169,7 +3154,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>316</v>
@@ -3220,7 +3205,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>262</v>
@@ -3280,13 +3265,13 @@
         <v>627754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -3295,13 +3280,13 @@
         <v>804203</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>1559</v>
@@ -3310,13 +3295,13 @@
         <v>1431957</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +3321,10 @@
         <v>255</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="H39" s="7">
         <v>30</v>
@@ -3348,13 +3333,13 @@
         <v>24031</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M39" s="7">
         <v>40</v>
@@ -3363,19 +3348,19 @@
         <v>33946</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="7">
         <v>5</v>
@@ -3384,13 +3369,13 @@
         <v>6247</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -3399,13 +3384,13 @@
         <v>27636</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M40" s="7">
         <v>35</v>
@@ -3414,19 +3399,19 @@
         <v>33883</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7">
         <v>377</v>
@@ -3435,13 +3420,13 @@
         <v>451197</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>427</v>
@@ -3450,13 +3435,13 @@
         <v>355890</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M41" s="7">
         <v>804</v>
@@ -3465,19 +3450,19 @@
         <v>807087</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7">
         <v>370</v>
@@ -3486,13 +3471,13 @@
         <v>392070</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H42" s="7">
         <v>575</v>
@@ -3501,13 +3486,13 @@
         <v>460876</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M42" s="7">
         <v>945</v>
@@ -3516,13 +3501,13 @@
         <v>852946</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3522,13 @@
         <v>859428</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
         <v>1062</v>
@@ -3552,13 +3537,13 @@
         <v>868434</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M43" s="7">
         <v>1824</v>
@@ -3567,13 +3552,13 @@
         <v>1727862</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3575,13 @@
         <v>57861</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="H44" s="7">
         <v>148</v>
@@ -3605,13 +3590,13 @@
         <v>99145</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="M44" s="7">
         <v>206</v>
@@ -3620,19 +3605,19 @@
         <v>157006</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="7">
         <v>34</v>
@@ -3641,13 +3626,13 @@
         <v>37558</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="H45" s="7">
         <v>223</v>
@@ -3656,13 +3641,13 @@
         <v>181061</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M45" s="7">
         <v>257</v>
@@ -3671,19 +3656,19 @@
         <v>218619</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C46" s="7">
         <v>1574</v>
@@ -3692,13 +3677,13 @@
         <v>1631363</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H46" s="7">
         <v>2061</v>
@@ -3707,34 +3692,34 @@
         <v>1573647</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>3635</v>
       </c>
       <c r="N46" s="7">
-        <v>3205010</v>
+        <v>3205009</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7">
         <v>1710</v>
@@ -3743,13 +3728,13 @@
         <v>1658446</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>2935</v>
@@ -3758,13 +3743,13 @@
         <v>1981728</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M47" s="7">
         <v>4645</v>
@@ -3773,13 +3758,13 @@
         <v>3640174</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3779,13 @@
         <v>3385228</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H48" s="7">
         <v>5367</v>
@@ -3809,33 +3794,33 @@
         <v>3835581</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M48" s="7">
         <v>8743</v>
       </c>
       <c r="N48" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB29FC7-E7D1-47AB-8358-99FC0C43C5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755566AD-4B82-420F-9988-E27AC14B62D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE436804-380B-41CE-A1C9-610B18338047}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2F4A24D-CC99-45E4-B6D0-37FA35DD13B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DE61E7-7583-419A-905E-C1D9172A78A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F126275A-4EF4-42F6-BB53-A253BD4EC62C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
